--- a/templates/sequence-based-metadata/experiment_template.xlsx
+++ b/templates/sequence-based-metadata/experiment_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5584DB2-A92A-4DD7-9EB3-B791A1D2079A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F78642-83D3-4E7F-8ED3-457F0B3B06D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1158,7 +1158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/sequence-based-metadata/experiment_template.xlsx
+++ b/templates/sequence-based-metadata/experiment_template.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2636B97-B501-4CE7-B3E5-32471D3DFAB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD00CC-9DC5-4E8C-8014-2BB0EBC68C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiment Data" sheetId="1" r:id="rId1"/>
+    <sheet name="experiment" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Tag</t>
   </si>
@@ -118,15 +126,6 @@
     <t>Library_selection*</t>
   </si>
   <si>
-    <t>Paired_Nominal_length</t>
-  </si>
-  <si>
-    <t>Paired_Nominal_sdev</t>
-  </si>
-  <si>
-    <t>Single_layout?</t>
-  </si>
-  <si>
     <t>Locus_name</t>
   </si>
   <si>
@@ -169,39 +168,9 @@
     <t>EBI-TEST</t>
   </si>
   <si>
-    <t>454 GS FLX Titanium</t>
-  </si>
-  <si>
     <t>Illumina Genome Analyzer</t>
   </si>
   <si>
-    <t>Helicos HeliScope</t>
-  </si>
-  <si>
-    <t>AB SOLiD System</t>
-  </si>
-  <si>
-    <t>Complete Genomics</t>
-  </si>
-  <si>
-    <t>BGISEQ-500</t>
-  </si>
-  <si>
-    <t>MinION</t>
-  </si>
-  <si>
-    <t>PacBio RS</t>
-  </si>
-  <si>
-    <t>Ion Torrent PGM</t>
-  </si>
-  <si>
-    <t>AB 3730xL Genetic Analyzer</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
     <t>Forward Primer</t>
   </si>
   <si>
@@ -238,12 +207,6 @@
     <t>ReadSpec.READ_TYPE</t>
   </si>
   <si>
-    <t>Application Read</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
     <t>ReadSpec.Expected_Default_Length</t>
   </si>
   <si>
@@ -262,27 +225,9 @@
     <t>ReadSpec.READ_LABEL</t>
   </si>
   <si>
-    <t>Forward_read</t>
-  </si>
-  <si>
     <t>ReadSpec.Preceding_read_index</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>Technical Read</t>
-  </si>
-  <si>
-    <t>BarCode</t>
-  </si>
-  <si>
-    <t>TCAG</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
     <t>Pipeline.StepIndex</t>
   </si>
   <si>
@@ -298,9 +243,6 @@
     <t>Pipeline.Notes</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>TODO: Step index of the previous step in the workflow (e.g. '1', '2'…). If this is the first pipe section, use 'N/A'.</t>
   </si>
   <si>
@@ -334,61 +276,9 @@
     <t>Image Analysis 1.3.4 - set birghtness to 30% through command X</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#! This will be changed once EE-1836 is done -- TODO: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Only use this column if the experiment has a PAIRED layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The nominal sdev refers to the standard deviation (e.g. '50.22') of paired-end library average internal insert sizes. </t>
-    </r>
-  </si>
-  <si>
     <t>TODO: the class of the read, either 'Application Read' or 'Technical Read'.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#! This will be changed once EE-1836 is done -- TODO: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Only use this column if the experiment has a PAIRED layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The nominal length (e.g. 390) is the average distance between the paired reads in base pair. </t>
-    </r>
-  </si>
-  <si>
     <t>TODO: Number of base/color calls, cycles, or flows per spot (e.g. 102) (raw sequence length or flow length including all application and technical tags and mate pairs, but not including gap lengths). This value will be platform dependent, library dependent, and possibly run dependent. Variable length platforms will still have a constant flow/cycle length.</t>
   </si>
   <si>
@@ -435,9 +325,6 @@
   </si>
   <si>
     <t>TODO: Name (string) that identifies the parent study (encompasses this experiment) within the namespace defined by attribute 'Study_refCenter'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#! This will be changed once EE-1836 is done -- TODO: Use 'True' if the experiment has a SINGLE layout. In such case, you shall leave the columns 'Paired_Nominal_length' and 'Paired_Nominal_sdev' empty. </t>
   </si>
   <si>
     <t xml:space="preserve">TODO: A label to name this tag (e.g. 'F', 'R', 'Forward_read'…). Can be used to determine read name. </t>
@@ -735,16 +622,117 @@
     <t>Optional (highly recommended) attributes</t>
   </si>
   <si>
-    <t>Dark grey</t>
-  </si>
-  <si>
-    <t>Ignore this column (based on multiple choice attributes)</t>
-  </si>
-  <si>
     <t>Other colours</t>
   </si>
   <si>
     <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
+  </si>
+  <si>
+    <t>Platform*</t>
+  </si>
+  <si>
+    <t>TODO: Selects which sequencing platform was used, determined by the Center. Based on the chosen sequencing platform, its corresponding instrument model will need to be provided (e.g. if the platform is ILLUMINA, you shall provide its instrument model at ILLUMINA.Instrument_model). Must be value from Controlled vocabulary:  
+	LS454
+	ILLUMINA
+	HELICOS
+	ABI_SOLID
+	COMPLETE_GENOMICS
+	BGISEQ
+	OXFORD_NANOPORE
+	PACBIO_SMRT
+	ION_TORRENT
+	CAPILLARY
+	DNBSEQ</t>
+  </si>
+  <si>
+    <t>ILLUMINA</t>
+  </si>
+  <si>
+    <t>Experiment_layout*</t>
+  </si>
+  <si>
+    <t>TODO: Specifies whether to expect single or paired reads. In the case of paired reads, information about the relative distance and orientation is specified. Must be value from Controlled vocabulary: 
+	SINGLE
+	PAIRED</t>
+  </si>
+  <si>
+    <t>PAIRED</t>
+  </si>
+  <si>
+    <r>
+      <t>TODO: Use this column if the experiment has a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PAIRED layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The nominal length (e.g. 390) is the average distance between the paired reads in base pair. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Use this column if the experiment has a PAIRED layout. The nominal sdev refers to the standard deviation (e.g. '50.22') of paired-end library average internal insert sizes. </t>
+  </si>
+  <si>
+    <t>PAIRED.Nominal_length</t>
+  </si>
+  <si>
+    <t>PAIRED.Nominal_sdev</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>TODO: Step index of the previous step in the workflow (e.g. '1', '2'…). If this is the first pipe section, use 'NIL'.</t>
+  </si>
+  <si>
+    <t>Light yellow</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Columns related to a choice from another column (based on multiple choice attributes) - e.g. if the provided experiment's layout is PAIRED, the two related columns (PAIRED.Nominal_length and PAIRED.Nominal_sdev) will change their header's format to light yellow.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column headers that do not appear to be chosen for any metadata instance (row), and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can be ignored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (based on multiple choice attributes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -791,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,18 +836,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -869,15 +863,6 @@
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -933,11 +918,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -982,44 +987,94 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1064,6 +1119,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFB7"/>
       <color rgb="FFCDACE6"/>
     </mruColors>
   </colors>
@@ -1341,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1353,20 +1409,21 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="13" width="15.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="15.5703125" style="8" customWidth="1"/>
-    <col min="16" max="18" width="15.5703125" style="9" customWidth="1"/>
-    <col min="19" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="12" customWidth="1"/>
-    <col min="32" max="41" width="8.7109375" style="13" customWidth="1"/>
-    <col min="42" max="52" width="8.7109375" style="10" customWidth="1"/>
-    <col min="53" max="57" width="8.7109375" style="16" customWidth="1"/>
-    <col min="58" max="62" width="8.7109375" style="10" customWidth="1"/>
-    <col min="63" max="65" width="8.7109375" style="3" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" style="11"/>
+    <col min="4" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="8" customWidth="1"/>
+    <col min="16" max="19" width="15.5703125" style="9" customWidth="1"/>
+    <col min="20" max="31" width="15.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="12" customWidth="1"/>
+    <col min="33" max="42" width="8.7109375" style="13" customWidth="1"/>
+    <col min="43" max="47" width="8.7109375" style="16" customWidth="1"/>
+    <col min="48" max="52" width="8.7109375" style="10" customWidth="1"/>
+    <col min="53" max="55" width="8.7109375" style="3" customWidth="1"/>
+    <col min="56" max="56" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,424 +1460,369 @@
       <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AS1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AT1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AU1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AV1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AY1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AT1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BA1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="17" t="s">
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="BF1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="AK2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="AQ2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO2" s="13" t="s">
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="N4" s="8">
         <v>390</v>
@@ -1829,157 +1831,112 @@
         <v>50.22</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>4</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>4</v>
-      </c>
-      <c r="AY4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA4" s="16">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD4" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF4" s="10">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO4" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1 BL1:BM1 S1:AD1 A1:O1 BQ1:XFD1">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="~*">
+  <conditionalFormatting sqref="Q1 BB1:BC1 A1:M1 BG1:XFD1">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
+  <conditionalFormatting sqref="R1:S1">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO1:BP1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BO1)))</formula>
+  <conditionalFormatting sqref="BE1:BF1">
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:AD1">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:AD1">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:O1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:O1">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1989,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,96 +1960,104 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>146</v>
+      <c r="A3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>150</v>
+      <c r="A7" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="32"/>
+      <c r="A9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>146</v>
+      <c r="A10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>155</v>
+      <c r="A11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>157</v>
+      <c r="A12" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>159</v>
+      <c r="A13" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>161</v>
+      <c r="A14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
